--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.27218990588992</v>
+        <v>1.032450680271187</v>
       </c>
       <c r="D2">
-        <v>0.2033643570170693</v>
+        <v>0.3091495262086186</v>
       </c>
       <c r="E2">
         <v>7.17360400360589</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.6262252635009883</v>
+        <v>0.3627071928512556</v>
       </c>
       <c r="D3">
-        <v>0.5311955638762154</v>
+        <v>0.7190687281874433</v>
       </c>
       <c r="E3">
         <v>7.17360400360589</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.851303804587911</v>
+        <v>1.380679080153042</v>
       </c>
       <c r="D4">
-        <v>0.06418432938593877</v>
+        <v>0.1763871540540469</v>
       </c>
       <c r="E4">
         <v>7.17360400360589</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.04799929239314468</v>
+        <v>0.03570438652338268</v>
       </c>
       <c r="D5">
-        <v>0.9617187087589465</v>
+        <v>0.9717268773527779</v>
       </c>
       <c r="E5">
         <v>7.17360400360589</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.7821557944844699</v>
+        <v>-0.9075335808413791</v>
       </c>
       <c r="D6">
-        <v>0.4341597711611815</v>
+        <v>0.3705124084831874</v>
       </c>
       <c r="E6">
         <v>6.213655300515652</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.5255914747579298</v>
+        <v>0.5564158324220148</v>
       </c>
       <c r="D7">
-        <v>0.5991952083111522</v>
+        <v>0.5815705969139007</v>
       </c>
       <c r="E7">
         <v>6.213655300515652</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.17852839771727</v>
+        <v>-1.240896547600747</v>
       </c>
       <c r="D8">
-        <v>0.2386416665482283</v>
+        <v>0.2231381600797004</v>
       </c>
       <c r="E8">
         <v>6.213655300515652</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.405445001251924</v>
+        <v>1.304533429818878</v>
       </c>
       <c r="D9">
-        <v>0.1599506426529496</v>
+        <v>0.2008135092058718</v>
       </c>
       <c r="E9">
         <v>6.801961746449432</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.4467317590132969</v>
+        <v>-0.6008030400082048</v>
       </c>
       <c r="D10">
-        <v>0.6550879462793793</v>
+        <v>0.5519556370800403</v>
       </c>
       <c r="E10">
         <v>6.801961746449432</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.596840143795144</v>
+        <v>-1.299761937739767</v>
       </c>
       <c r="D11">
-        <v>0.1103640494086238</v>
+        <v>0.202426114791507</v>
       </c>
       <c r="E11">
         <v>5.865023106435231</v>
